--- a/result/history2022-05-26output.xlsx
+++ b/result/history2022-05-26output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>asdasdas</t>
+  </si>
+  <si>
+    <t>Louis</t>
   </si>
   <si>
     <t>192.168.50.238</t>
@@ -410,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>61.74</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>98.81999999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -467,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>61.74</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>98.81999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -490,19 +493,42 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>61.74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>98.81999999999999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
